--- a/src/main/resources/templates/exceltemplates/Covid_Checklist.xlsx
+++ b/src/main/resources/templates/exceltemplates/Covid_Checklist.xlsx
@@ -8,8 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DGA_Maharastra\Xforms\Mail Template\Mailtemplate\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C036AB31-FEE2-4830-836F-90C028B9A34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="KY3zhOnORXNTTycB0z77G7jyra5kinfvAXHt5MXTQNm0ac4i0eILbflfecTzW7f9FNN/DyP27scRI2Jq73yphw==" workbookSaltValue="jt3A3kjHMMl9kyXlzwfF3w==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864D4B6F-3163-43FB-8651-F08F16BC652E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2747,15 +2746,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="85.6640625" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" style="5" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="45"/>
@@ -6092,7 +6091,6 @@
       <c r="D286" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sIqZPBatkHRV8mxvX6n0Vigd1CK18mG4gTEOadD8WYEC6UlEDSiIN7niY+tmXjm9tFvJLgIeIJ9YxzPCxPycQw==" saltValue="/MsH+Bi0oQga7qpZIAIBKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B286">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
